--- a/نموذج القاعات.xlsx
+++ b/نموذج القاعات.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="الدفعات" sheetId="1" r:id="rId1"/>
-    <sheet name="الخلفاوي" sheetId="2" r:id="rId2"/>
+    <sheet name="خلفاوي" sheetId="2" r:id="rId2"/>
     <sheet name="روض الفرج" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
